--- a/GoldAnalysisSystem/alldata_filter.xlsx
+++ b/GoldAnalysisSystem/alldata_filter.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet8" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet8!$A$1:$G$2867</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet8!$A$1:$G$2919</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -46,10 +46,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -69,20 +69,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -106,7 +98,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,22 +127,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,25 +159,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,8 +196,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,7 +221,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,7 +281,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,13 +299,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,115 +389,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,25 +401,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,10 +432,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -443,8 +441,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -461,6 +461,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,23 +507,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,173 +527,167 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1040,10 +1043,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G2867"/>
+  <dimension ref="A1:G2919"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A2892" workbookViewId="0">
+      <selection activeCell="L2909" sqref="L2909"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -66992,15 +66995,1214 @@
         <v>12</v>
       </c>
     </row>
+    <row r="2868" spans="1:7">
+      <c r="A2868" s="2">
+        <v>43816</v>
+      </c>
+      <c r="B2868" s="5">
+        <v>341.54</v>
+      </c>
+      <c r="C2868" s="5">
+        <v>341.68</v>
+      </c>
+      <c r="D2868" s="5">
+        <v>340.44</v>
+      </c>
+      <c r="E2868" s="5">
+        <v>341.1</v>
+      </c>
+      <c r="F2868" s="5">
+        <v>340.76</v>
+      </c>
+      <c r="G2868" s="5">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="2869" spans="1:7">
+      <c r="A2869" s="2">
+        <v>43817</v>
+      </c>
+      <c r="B2869" s="5">
+        <v>341.18</v>
+      </c>
+      <c r="C2869" s="5">
+        <v>341.62</v>
+      </c>
+      <c r="D2869" s="5">
+        <v>340.38</v>
+      </c>
+      <c r="E2869" s="5">
+        <v>341.56</v>
+      </c>
+      <c r="F2869" s="5">
+        <v>341</v>
+      </c>
+      <c r="G2869" s="5">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="2870" spans="1:7">
+      <c r="A2870" s="2">
+        <v>43818</v>
+      </c>
+      <c r="B2870" s="5">
+        <v>340.9</v>
+      </c>
+      <c r="C2870" s="5">
+        <v>341.46</v>
+      </c>
+      <c r="D2870" s="5">
+        <v>339.9</v>
+      </c>
+      <c r="E2870" s="5">
+        <v>341.14</v>
+      </c>
+      <c r="F2870" s="5">
+        <v>341.14</v>
+      </c>
+      <c r="G2870" s="5">
+        <v>3712</v>
+      </c>
+    </row>
+    <row r="2871" spans="1:7">
+      <c r="A2871" s="2">
+        <v>43819</v>
+      </c>
+      <c r="B2871" s="5">
+        <v>341.02</v>
+      </c>
+      <c r="C2871" s="5">
+        <v>342.18</v>
+      </c>
+      <c r="D2871" s="5">
+        <v>340.94</v>
+      </c>
+      <c r="E2871" s="5">
+        <v>342.18</v>
+      </c>
+      <c r="F2871" s="5">
+        <v>341.78</v>
+      </c>
+      <c r="G2871" s="5">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="2872" spans="1:7">
+      <c r="A2872" s="2">
+        <v>43822</v>
+      </c>
+      <c r="B2872" s="5">
+        <v>342</v>
+      </c>
+      <c r="C2872" s="5">
+        <v>343.44</v>
+      </c>
+      <c r="D2872" s="5">
+        <v>341.16</v>
+      </c>
+      <c r="E2872" s="5">
+        <v>343.28</v>
+      </c>
+      <c r="F2872" s="5">
+        <v>342.66</v>
+      </c>
+      <c r="G2872" s="5">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="2873" spans="1:7">
+      <c r="A2873" s="2">
+        <v>43823</v>
+      </c>
+      <c r="B2873" s="5">
+        <v>343</v>
+      </c>
+      <c r="C2873" s="5">
+        <v>345.26</v>
+      </c>
+      <c r="D2873" s="5">
+        <v>342.5</v>
+      </c>
+      <c r="E2873" s="5">
+        <v>344.94</v>
+      </c>
+      <c r="F2873" s="5">
+        <v>344.6</v>
+      </c>
+      <c r="G2873" s="5">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="2874" spans="1:7">
+      <c r="A2874" s="2">
+        <v>43824</v>
+      </c>
+      <c r="B2874" s="5">
+        <v>344.92</v>
+      </c>
+      <c r="C2874" s="5">
+        <v>347.22</v>
+      </c>
+      <c r="D2874" s="5">
+        <v>344.9</v>
+      </c>
+      <c r="E2874" s="5">
+        <v>346.82</v>
+      </c>
+      <c r="F2874" s="5">
+        <v>346.56</v>
+      </c>
+      <c r="G2874" s="5">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="2875" spans="1:7">
+      <c r="A2875" s="2">
+        <v>43825</v>
+      </c>
+      <c r="B2875" s="5">
+        <v>346.66</v>
+      </c>
+      <c r="C2875" s="5">
+        <v>347.86</v>
+      </c>
+      <c r="D2875" s="5">
+        <v>345.9</v>
+      </c>
+      <c r="E2875" s="5">
+        <v>347.26</v>
+      </c>
+      <c r="F2875" s="5">
+        <v>347.22</v>
+      </c>
+      <c r="G2875" s="5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2876" spans="1:7">
+      <c r="A2876" s="2">
+        <v>43826</v>
+      </c>
+      <c r="B2876" s="5">
+        <v>347.94</v>
+      </c>
+      <c r="C2876" s="5">
+        <v>349.68</v>
+      </c>
+      <c r="D2876" s="5">
+        <v>347.8</v>
+      </c>
+      <c r="E2876" s="5">
+        <v>348.22</v>
+      </c>
+      <c r="F2876" s="5">
+        <v>348.9</v>
+      </c>
+      <c r="G2876" s="5">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="2877" spans="1:7">
+      <c r="A2877" s="2">
+        <v>43829</v>
+      </c>
+      <c r="B2877" s="5">
+        <v>348.78</v>
+      </c>
+      <c r="C2877" s="5">
+        <v>349.46</v>
+      </c>
+      <c r="D2877" s="5">
+        <v>348.34</v>
+      </c>
+      <c r="E2877" s="5">
+        <v>348.58</v>
+      </c>
+      <c r="F2877" s="5">
+        <v>348.94</v>
+      </c>
+      <c r="G2877" s="5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2878" spans="1:7">
+      <c r="A2878" s="2">
+        <v>43830</v>
+      </c>
+      <c r="B2878" s="5">
+        <v>348.42</v>
+      </c>
+      <c r="C2878" s="5">
+        <v>351.24</v>
+      </c>
+      <c r="D2878" s="5">
+        <v>348.06</v>
+      </c>
+      <c r="E2878" s="5">
+        <v>350.74</v>
+      </c>
+      <c r="F2878" s="5">
+        <v>350.02</v>
+      </c>
+      <c r="G2878" s="5">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2879" spans="1:7">
+      <c r="A2879" s="2">
+        <v>43832</v>
+      </c>
+      <c r="B2879" s="5">
+        <v>349.44</v>
+      </c>
+      <c r="C2879" s="5">
+        <v>349.92</v>
+      </c>
+      <c r="D2879" s="5">
+        <v>349</v>
+      </c>
+      <c r="E2879" s="5">
+        <v>349.46</v>
+      </c>
+      <c r="F2879" s="5">
+        <v>349.52</v>
+      </c>
+      <c r="G2879" s="5">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2880" spans="1:7">
+      <c r="A2880" s="2">
+        <v>43833</v>
+      </c>
+      <c r="B2880" s="5">
+        <v>350.14</v>
+      </c>
+      <c r="C2880" s="5">
+        <v>355.36</v>
+      </c>
+      <c r="D2880" s="5">
+        <v>350.14</v>
+      </c>
+      <c r="E2880" s="5">
+        <v>354.5</v>
+      </c>
+      <c r="F2880" s="5">
+        <v>352.92</v>
+      </c>
+      <c r="G2880" s="5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="2881" spans="1:7">
+      <c r="A2881" s="2">
+        <v>43836</v>
+      </c>
+      <c r="B2881" s="5">
+        <v>355.4</v>
+      </c>
+      <c r="C2881" s="5">
+        <v>363</v>
+      </c>
+      <c r="D2881" s="5">
+        <v>354.32</v>
+      </c>
+      <c r="E2881" s="5">
+        <v>362.08</v>
+      </c>
+      <c r="F2881" s="5">
+        <v>359.16</v>
+      </c>
+      <c r="G2881" s="5">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="2882" spans="1:7">
+      <c r="A2882" s="2">
+        <v>43837</v>
+      </c>
+      <c r="B2882" s="5">
+        <v>362.3</v>
+      </c>
+      <c r="C2882" s="5">
+        <v>362.4</v>
+      </c>
+      <c r="D2882" s="5">
+        <v>356.96</v>
+      </c>
+      <c r="E2882" s="5">
+        <v>358.42</v>
+      </c>
+      <c r="F2882" s="5">
+        <v>358.92</v>
+      </c>
+      <c r="G2882" s="5">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="2883" spans="1:7">
+      <c r="A2883" s="2">
+        <v>43838</v>
+      </c>
+      <c r="B2883" s="5">
+        <v>358.56</v>
+      </c>
+      <c r="C2883" s="5">
+        <v>367.94</v>
+      </c>
+      <c r="D2883" s="5">
+        <v>358.3</v>
+      </c>
+      <c r="E2883" s="5">
+        <v>364.6</v>
+      </c>
+      <c r="F2883" s="5">
+        <v>365.04</v>
+      </c>
+      <c r="G2883" s="5">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="2884" spans="1:7">
+      <c r="A2884" s="2">
+        <v>43839</v>
+      </c>
+      <c r="B2884" s="5">
+        <v>362.34</v>
+      </c>
+      <c r="C2884" s="5">
+        <v>362.34</v>
+      </c>
+      <c r="D2884" s="5">
+        <v>350.54</v>
+      </c>
+      <c r="E2884" s="5">
+        <v>351.5</v>
+      </c>
+      <c r="F2884" s="5">
+        <v>356.28</v>
+      </c>
+      <c r="G2884" s="5">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="2885" spans="1:7">
+      <c r="A2885" s="2">
+        <v>43840</v>
+      </c>
+      <c r="B2885" s="5">
+        <v>353</v>
+      </c>
+      <c r="C2885" s="5">
+        <v>355</v>
+      </c>
+      <c r="D2885" s="5">
+        <v>352.4</v>
+      </c>
+      <c r="E2885" s="5">
+        <v>353.1</v>
+      </c>
+      <c r="F2885" s="5">
+        <v>353.4</v>
+      </c>
+      <c r="G2885" s="5">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="2886" spans="1:7">
+      <c r="A2886" s="2">
+        <v>43843</v>
+      </c>
+      <c r="B2886" s="5">
+        <v>352.94</v>
+      </c>
+      <c r="C2886" s="5">
+        <v>355.14</v>
+      </c>
+      <c r="D2886" s="5">
+        <v>352.5</v>
+      </c>
+      <c r="E2886" s="5">
+        <v>353.4</v>
+      </c>
+      <c r="F2886" s="5">
+        <v>353.64</v>
+      </c>
+      <c r="G2886" s="5">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="2887" spans="1:7">
+      <c r="A2887" s="2">
+        <v>43844</v>
+      </c>
+      <c r="B2887" s="5">
+        <v>353</v>
+      </c>
+      <c r="C2887" s="5">
+        <v>353.22</v>
+      </c>
+      <c r="D2887" s="5">
+        <v>346.8</v>
+      </c>
+      <c r="E2887" s="5">
+        <v>349.06</v>
+      </c>
+      <c r="F2887" s="5">
+        <v>348.62</v>
+      </c>
+      <c r="G2887" s="5">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="2888" spans="1:7">
+      <c r="A2888" s="2">
+        <v>43845</v>
+      </c>
+      <c r="B2888" s="5">
+        <v>350.14</v>
+      </c>
+      <c r="C2888" s="5">
+        <v>352.9</v>
+      </c>
+      <c r="D2888" s="5">
+        <v>349.66</v>
+      </c>
+      <c r="E2888" s="5">
+        <v>352.04</v>
+      </c>
+      <c r="F2888" s="5">
+        <v>351.74</v>
+      </c>
+      <c r="G2888" s="5">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="2889" spans="1:7">
+      <c r="A2889" s="2">
+        <v>43846</v>
+      </c>
+      <c r="B2889" s="5">
+        <v>351.92</v>
+      </c>
+      <c r="C2889" s="5">
+        <v>353.5</v>
+      </c>
+      <c r="D2889" s="5">
+        <v>351.32</v>
+      </c>
+      <c r="E2889" s="5">
+        <v>352.16</v>
+      </c>
+      <c r="F2889" s="5">
+        <v>352.4</v>
+      </c>
+      <c r="G2889" s="5">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="2890" spans="1:7">
+      <c r="A2890" s="2">
+        <v>43847</v>
+      </c>
+      <c r="B2890" s="5">
+        <v>352.56</v>
+      </c>
+      <c r="C2890" s="5">
+        <v>352.62</v>
+      </c>
+      <c r="D2890" s="5">
+        <v>350.62</v>
+      </c>
+      <c r="E2890" s="5">
+        <v>351.78</v>
+      </c>
+      <c r="F2890" s="5">
+        <v>351.68</v>
+      </c>
+      <c r="G2890" s="5">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="2891" spans="1:7">
+      <c r="A2891" s="2">
+        <v>43850</v>
+      </c>
+      <c r="B2891" s="5">
+        <v>352.24</v>
+      </c>
+      <c r="C2891" s="5">
+        <v>352.7</v>
+      </c>
+      <c r="D2891" s="5">
+        <v>351.26</v>
+      </c>
+      <c r="E2891" s="5">
+        <v>351.96</v>
+      </c>
+      <c r="F2891" s="5">
+        <v>351.92</v>
+      </c>
+      <c r="G2891" s="5">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="2892" spans="1:7">
+      <c r="A2892" s="2">
+        <v>43851</v>
+      </c>
+      <c r="B2892" s="5">
+        <v>352</v>
+      </c>
+      <c r="C2892" s="5">
+        <v>356</v>
+      </c>
+      <c r="D2892" s="5">
+        <v>352</v>
+      </c>
+      <c r="E2892" s="5">
+        <v>355.64</v>
+      </c>
+      <c r="F2892" s="5">
+        <v>355.04</v>
+      </c>
+      <c r="G2892" s="5">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="2893" spans="1:7">
+      <c r="A2893" s="2">
+        <v>43852</v>
+      </c>
+      <c r="B2893" s="5">
+        <v>353.78</v>
+      </c>
+      <c r="C2893" s="5">
+        <v>354.24</v>
+      </c>
+      <c r="D2893" s="5">
+        <v>351.2</v>
+      </c>
+      <c r="E2893" s="5">
+        <v>352.72</v>
+      </c>
+      <c r="F2893" s="5">
+        <v>352.76</v>
+      </c>
+      <c r="G2893" s="5">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="2894" spans="1:7">
+      <c r="A2894" s="2">
+        <v>43853</v>
+      </c>
+      <c r="B2894" s="5">
+        <v>353.44</v>
+      </c>
+      <c r="C2894" s="5">
+        <v>355.52</v>
+      </c>
+      <c r="D2894" s="5">
+        <v>353.06</v>
+      </c>
+      <c r="E2894" s="5">
+        <v>355.04</v>
+      </c>
+      <c r="F2894" s="5">
+        <v>354.56</v>
+      </c>
+      <c r="G2894" s="5">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="2895" spans="1:7">
+      <c r="A2895" s="2">
+        <v>43864</v>
+      </c>
+      <c r="B2895" s="5">
+        <v>361.1</v>
+      </c>
+      <c r="C2895" s="5">
+        <v>364.46</v>
+      </c>
+      <c r="D2895" s="5">
+        <v>361.1</v>
+      </c>
+      <c r="E2895" s="5">
+        <v>364.1</v>
+      </c>
+      <c r="F2895" s="5">
+        <v>363.66</v>
+      </c>
+      <c r="G2895" s="5">
+        <v>3518</v>
+      </c>
+    </row>
+    <row r="2896" spans="1:7">
+      <c r="A2896" s="2">
+        <v>43865</v>
+      </c>
+      <c r="B2896" s="5">
+        <v>363.1</v>
+      </c>
+      <c r="C2896" s="5">
+        <v>363.98</v>
+      </c>
+      <c r="D2896" s="5">
+        <v>360.74</v>
+      </c>
+      <c r="E2896" s="5">
+        <v>360.82</v>
+      </c>
+      <c r="F2896" s="5">
+        <v>362.04</v>
+      </c>
+      <c r="G2896" s="5">
+        <v>2454</v>
+      </c>
+    </row>
+    <row r="2897" spans="1:7">
+      <c r="A2897" s="2">
+        <v>43866</v>
+      </c>
+      <c r="B2897" s="5">
+        <v>358.34</v>
+      </c>
+      <c r="C2897" s="5">
+        <v>359.52</v>
+      </c>
+      <c r="D2897" s="5">
+        <v>356.06</v>
+      </c>
+      <c r="E2897" s="5">
+        <v>358.62</v>
+      </c>
+      <c r="F2897" s="5">
+        <v>358.12</v>
+      </c>
+      <c r="G2897" s="5">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="2898" spans="1:7">
+      <c r="A2898" s="2">
+        <v>43867</v>
+      </c>
+      <c r="B2898" s="5">
+        <v>356.68</v>
+      </c>
+      <c r="C2898" s="5">
+        <v>357.16</v>
+      </c>
+      <c r="D2898" s="5">
+        <v>355.46</v>
+      </c>
+      <c r="E2898" s="5">
+        <v>356.62</v>
+      </c>
+      <c r="F2898" s="5">
+        <v>356.54</v>
+      </c>
+      <c r="G2898" s="5">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="2899" spans="1:7">
+      <c r="A2899" s="2">
+        <v>43868</v>
+      </c>
+      <c r="B2899" s="5">
+        <v>359.5</v>
+      </c>
+      <c r="C2899" s="5">
+        <v>360</v>
+      </c>
+      <c r="D2899" s="5">
+        <v>358.1</v>
+      </c>
+      <c r="E2899" s="5">
+        <v>358.52</v>
+      </c>
+      <c r="F2899" s="5">
+        <v>359.22</v>
+      </c>
+      <c r="G2899" s="5">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="2900" spans="1:7">
+      <c r="A2900" s="2">
+        <v>43871</v>
+      </c>
+      <c r="B2900" s="5">
+        <v>360.94</v>
+      </c>
+      <c r="C2900" s="5">
+        <v>361.98</v>
+      </c>
+      <c r="D2900" s="5">
+        <v>359.86</v>
+      </c>
+      <c r="E2900" s="5">
+        <v>360.06</v>
+      </c>
+      <c r="F2900" s="5">
+        <v>361.02</v>
+      </c>
+      <c r="G2900" s="5">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="2901" spans="1:7">
+      <c r="A2901" s="2">
+        <v>43872</v>
+      </c>
+      <c r="B2901" s="5">
+        <v>360</v>
+      </c>
+      <c r="C2901" s="5">
+        <v>360.24</v>
+      </c>
+      <c r="D2901" s="5">
+        <v>358.9</v>
+      </c>
+      <c r="E2901" s="5">
+        <v>359.1</v>
+      </c>
+      <c r="F2901" s="5">
+        <v>359.4</v>
+      </c>
+      <c r="G2901" s="5">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="2902" spans="1:7">
+      <c r="A2902" s="2">
+        <v>43873</v>
+      </c>
+      <c r="B2902" s="5">
+        <v>358.82</v>
+      </c>
+      <c r="C2902" s="5">
+        <v>359</v>
+      </c>
+      <c r="D2902" s="5">
+        <v>357.38</v>
+      </c>
+      <c r="E2902" s="5">
+        <v>358.3</v>
+      </c>
+      <c r="F2902" s="5">
+        <v>358.32</v>
+      </c>
+      <c r="G2902" s="5">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="2903" spans="1:7">
+      <c r="A2903" s="2">
+        <v>43874</v>
+      </c>
+      <c r="B2903" s="5">
+        <v>359.52</v>
+      </c>
+      <c r="C2903" s="5">
+        <v>361.3</v>
+      </c>
+      <c r="D2903" s="5">
+        <v>359.34</v>
+      </c>
+      <c r="E2903" s="5">
+        <v>360.74</v>
+      </c>
+      <c r="F2903" s="5">
+        <v>360.44</v>
+      </c>
+      <c r="G2903" s="5">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="2904" spans="1:7">
+      <c r="A2904" s="2">
+        <v>43875</v>
+      </c>
+      <c r="B2904" s="5">
+        <v>360.96</v>
+      </c>
+      <c r="C2904" s="5">
+        <v>361.9</v>
+      </c>
+      <c r="D2904" s="5">
+        <v>360.02</v>
+      </c>
+      <c r="E2904" s="5">
+        <v>361.2</v>
+      </c>
+      <c r="F2904" s="5">
+        <v>361.2</v>
+      </c>
+      <c r="G2904" s="5">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="2905" spans="1:7">
+      <c r="A2905" s="2">
+        <v>43878</v>
+      </c>
+      <c r="B2905" s="5">
+        <v>362.08</v>
+      </c>
+      <c r="C2905" s="5">
+        <v>363</v>
+      </c>
+      <c r="D2905" s="5">
+        <v>362</v>
+      </c>
+      <c r="E2905" s="5">
+        <v>362.4</v>
+      </c>
+      <c r="F2905" s="5">
+        <v>362.5</v>
+      </c>
+      <c r="G2905" s="5">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="2906" spans="1:7">
+      <c r="A2906" s="2">
+        <v>43879</v>
+      </c>
+      <c r="B2906" s="5">
+        <v>363.5</v>
+      </c>
+      <c r="C2906" s="5">
+        <v>364.16</v>
+      </c>
+      <c r="D2906" s="5">
+        <v>363.3</v>
+      </c>
+      <c r="E2906" s="5">
+        <v>363.78</v>
+      </c>
+      <c r="F2906" s="5">
+        <v>363.74</v>
+      </c>
+      <c r="G2906" s="5">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="2907" spans="1:7">
+      <c r="A2907" s="2">
+        <v>43880</v>
+      </c>
+      <c r="B2907" s="5">
+        <v>366.16</v>
+      </c>
+      <c r="C2907" s="5">
+        <v>368.72</v>
+      </c>
+      <c r="D2907" s="5">
+        <v>366.16</v>
+      </c>
+      <c r="E2907" s="5">
+        <v>368.38</v>
+      </c>
+      <c r="F2907" s="5">
+        <v>367.98</v>
+      </c>
+      <c r="G2907" s="5">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="2908" spans="1:7">
+      <c r="A2908" s="2">
+        <v>43881</v>
+      </c>
+      <c r="B2908" s="5">
+        <v>369.1</v>
+      </c>
+      <c r="C2908" s="5">
+        <v>371.08</v>
+      </c>
+      <c r="D2908" s="5">
+        <v>368.64</v>
+      </c>
+      <c r="E2908" s="5">
+        <v>369.2</v>
+      </c>
+      <c r="F2908" s="5">
+        <v>369.84</v>
+      </c>
+      <c r="G2908" s="5">
+        <v>2694</v>
+      </c>
+    </row>
+    <row r="2909" spans="1:7">
+      <c r="A2909" s="2">
+        <v>43882</v>
+      </c>
+      <c r="B2909" s="5">
+        <v>372.32</v>
+      </c>
+      <c r="C2909" s="5">
+        <v>376.38</v>
+      </c>
+      <c r="D2909" s="5">
+        <v>372.32</v>
+      </c>
+      <c r="E2909" s="5">
+        <v>376</v>
+      </c>
+      <c r="F2909" s="5">
+        <v>374.28</v>
+      </c>
+      <c r="G2909" s="5">
+        <v>2322</v>
+      </c>
+    </row>
+    <row r="2910" spans="1:7">
+      <c r="A2910" s="2">
+        <v>43885</v>
+      </c>
+      <c r="B2910" s="5">
+        <v>381.32</v>
+      </c>
+      <c r="C2910" s="5">
+        <v>384.92</v>
+      </c>
+      <c r="D2910" s="5">
+        <v>381.32</v>
+      </c>
+      <c r="E2910" s="5">
+        <v>383.7</v>
+      </c>
+      <c r="F2910" s="5">
+        <v>383.08</v>
+      </c>
+      <c r="G2910" s="5">
+        <v>3827</v>
+      </c>
+    </row>
+    <row r="2911" spans="1:7">
+      <c r="A2911" s="2">
+        <v>43886</v>
+      </c>
+      <c r="B2911" s="5">
+        <v>379.66</v>
+      </c>
+      <c r="C2911" s="5">
+        <v>381.28</v>
+      </c>
+      <c r="D2911" s="5">
+        <v>375</v>
+      </c>
+      <c r="E2911" s="5">
+        <v>376</v>
+      </c>
+      <c r="F2911" s="5">
+        <v>378.48</v>
+      </c>
+      <c r="G2911" s="5">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="2912" spans="1:7">
+      <c r="A2912" s="2">
+        <v>43887</v>
+      </c>
+      <c r="B2912" s="5">
+        <v>376.68</v>
+      </c>
+      <c r="C2912" s="5">
+        <v>378.82</v>
+      </c>
+      <c r="D2912" s="5">
+        <v>376.18</v>
+      </c>
+      <c r="E2912" s="5">
+        <v>378.22</v>
+      </c>
+      <c r="F2912" s="5">
+        <v>377.92</v>
+      </c>
+      <c r="G2912" s="5">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="2913" spans="1:7">
+      <c r="A2913" s="2">
+        <v>43888</v>
+      </c>
+      <c r="B2913" s="5">
+        <v>378.36</v>
+      </c>
+      <c r="C2913" s="5">
+        <v>379.64</v>
+      </c>
+      <c r="D2913" s="5">
+        <v>377.72</v>
+      </c>
+      <c r="E2913" s="5">
+        <v>378.46</v>
+      </c>
+      <c r="F2913" s="5">
+        <v>378.7</v>
+      </c>
+      <c r="G2913" s="5">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="2914" spans="1:7">
+      <c r="A2914" s="2">
+        <v>43889</v>
+      </c>
+      <c r="B2914" s="5">
+        <v>377.88</v>
+      </c>
+      <c r="C2914" s="5">
+        <v>378</v>
+      </c>
+      <c r="D2914" s="5">
+        <v>372.32</v>
+      </c>
+      <c r="E2914" s="5">
+        <v>374.5</v>
+      </c>
+      <c r="F2914" s="5">
+        <v>375.88</v>
+      </c>
+      <c r="G2914" s="5">
+        <v>5703</v>
+      </c>
+    </row>
+    <row r="2915" spans="1:7">
+      <c r="A2915" s="2">
+        <v>43892</v>
+      </c>
+      <c r="B2915" s="5">
+        <v>366.8</v>
+      </c>
+      <c r="C2915" s="5">
+        <v>367.46</v>
+      </c>
+      <c r="D2915" s="5">
+        <v>363.18</v>
+      </c>
+      <c r="E2915" s="5">
+        <v>365.68</v>
+      </c>
+      <c r="F2915" s="5">
+        <v>365.66</v>
+      </c>
+      <c r="G2915" s="5">
+        <v>7765</v>
+      </c>
+    </row>
+    <row r="2916" spans="1:7">
+      <c r="A2916" s="2">
+        <v>43893</v>
+      </c>
+      <c r="B2916" s="5">
+        <v>363.64</v>
+      </c>
+      <c r="C2916" s="5">
+        <v>365.34</v>
+      </c>
+      <c r="D2916" s="5">
+        <v>359.6</v>
+      </c>
+      <c r="E2916" s="5">
+        <v>364.5</v>
+      </c>
+      <c r="F2916" s="5">
+        <v>364.52</v>
+      </c>
+      <c r="G2916" s="5">
+        <v>4405</v>
+      </c>
+    </row>
+    <row r="2917" spans="1:7">
+      <c r="A2917" s="2">
+        <v>43894</v>
+      </c>
+      <c r="B2917" s="5">
+        <v>371.26</v>
+      </c>
+      <c r="C2917" s="5">
+        <v>374.34</v>
+      </c>
+      <c r="D2917" s="5">
+        <v>371.26</v>
+      </c>
+      <c r="E2917" s="5">
+        <v>372.52</v>
+      </c>
+      <c r="F2917" s="5">
+        <v>372.94</v>
+      </c>
+      <c r="G2917" s="5">
+        <v>7429</v>
+      </c>
+    </row>
+    <row r="2918" spans="1:7">
+      <c r="A2918" s="2">
+        <v>43895</v>
+      </c>
+      <c r="B2918" s="5">
+        <v>371.8</v>
+      </c>
+      <c r="C2918" s="5">
+        <v>372.7</v>
+      </c>
+      <c r="D2918" s="5">
+        <v>371.06</v>
+      </c>
+      <c r="E2918" s="5">
+        <v>372.7</v>
+      </c>
+      <c r="F2918" s="5">
+        <v>371.72</v>
+      </c>
+      <c r="G2918" s="5">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="2919" spans="1:7">
+      <c r="A2919" s="2">
+        <v>43896</v>
+      </c>
+      <c r="B2919" s="5">
+        <v>378.22</v>
+      </c>
+      <c r="C2919" s="5">
+        <v>381.8</v>
+      </c>
+      <c r="D2919" s="5">
+        <v>378.22</v>
+      </c>
+      <c r="E2919" s="5">
+        <v>380.02</v>
+      </c>
+      <c r="F2919" s="5">
+        <v>379.74</v>
+      </c>
+      <c r="G2919" s="5">
+        <v>6512</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G2867">
-    <sortState ref="A2:G2867">
+  <autoFilter ref="A1:G2919">
+    <sortState ref="A1:G2919">
       <sortCondition ref="A1"/>
     </sortState>
     <extLst/>
   </autoFilter>
-  <conditionalFormatting sqref="A$1:A$1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="A2868:A2919">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A2867 A2920:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
